--- a/Figures/pairwise_adonis_22_same_sheet.xlsx
+++ b/Figures/pairwise_adonis_22_same_sheet.xlsx
@@ -17,7 +17,7 @@
     <t xml:space="preserve">parent_call</t>
   </si>
   <si>
-    <t xml:space="preserve">Spp_22 ~ Treatment , strata = Null , permutations 999</t>
+    <t xml:space="preserve">Veg_Spp ~ Treatment , strata = Null , permutations 999</t>
   </si>
   <si>
     <t xml:space="preserve">W_vs_LM</t>
@@ -455,7 +455,7 @@
         <v>1.64515877407047</v>
       </c>
       <c r="E6" t="n">
-        <v>0.179</v>
+        <v>0.196</v>
       </c>
     </row>
     <row r="7">
@@ -520,7 +520,7 @@
         <v>0.637007320706821</v>
       </c>
       <c r="E12" t="n">
-        <v>0.615</v>
+        <v>0.616</v>
       </c>
     </row>
     <row r="13">
@@ -585,7 +585,7 @@
         <v>2.135826879874</v>
       </c>
       <c r="E18" t="n">
-        <v>0.116</v>
+        <v>0.123</v>
       </c>
     </row>
     <row r="19">
@@ -715,7 +715,7 @@
         <v>1.10144499770025</v>
       </c>
       <c r="E30" t="n">
-        <v>0.36</v>
+        <v>0.367</v>
       </c>
     </row>
     <row r="31">
@@ -780,7 +780,7 @@
         <v>1.24393804954926</v>
       </c>
       <c r="E36" t="n">
-        <v>0.29</v>
+        <v>0.28</v>
       </c>
     </row>
     <row r="37">
@@ -845,7 +845,7 @@
         <v>6.93186671942082</v>
       </c>
       <c r="E42" t="n">
-        <v>0.001</v>
+        <v>0.002</v>
       </c>
     </row>
     <row r="43">
@@ -910,7 +910,7 @@
         <v>3.6535565740211</v>
       </c>
       <c r="E48" t="n">
-        <v>0.027</v>
+        <v>0.024</v>
       </c>
     </row>
     <row r="49">
@@ -975,7 +975,7 @@
         <v>1.45011113937639</v>
       </c>
       <c r="E54" t="n">
-        <v>0.232</v>
+        <v>0.236</v>
       </c>
     </row>
     <row r="55">
@@ -1105,7 +1105,7 @@
         <v>7.42905726480664</v>
       </c>
       <c r="E66" t="n">
-        <v>0.002</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="67">
@@ -1170,7 +1170,7 @@
         <v>0.337651939687124</v>
       </c>
       <c r="E72" t="n">
-        <v>0.822</v>
+        <v>0.815</v>
       </c>
     </row>
     <row r="73">
@@ -1235,7 +1235,7 @@
         <v>20.2910659592871</v>
       </c>
       <c r="E78" t="n">
-        <v>0.001</v>
+        <v>0.002</v>
       </c>
     </row>
     <row r="79">

--- a/Figures/pairwise_adonis_22_same_sheet.xlsx
+++ b/Figures/pairwise_adonis_22_same_sheet.xlsx
@@ -455,7 +455,7 @@
         <v>1.64515877407047</v>
       </c>
       <c r="E6" t="n">
-        <v>0.196</v>
+        <v>0.194</v>
       </c>
     </row>
     <row r="7">
@@ -520,7 +520,7 @@
         <v>0.637007320706821</v>
       </c>
       <c r="E12" t="n">
-        <v>0.616</v>
+        <v>0.631</v>
       </c>
     </row>
     <row r="13">
@@ -585,7 +585,7 @@
         <v>2.135826879874</v>
       </c>
       <c r="E18" t="n">
-        <v>0.123</v>
+        <v>0.104</v>
       </c>
     </row>
     <row r="19">
@@ -650,7 +650,7 @@
         <v>8.17941972177611</v>
       </c>
       <c r="E24" t="n">
-        <v>0.002</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="25">
@@ -715,7 +715,7 @@
         <v>1.10144499770025</v>
       </c>
       <c r="E30" t="n">
-        <v>0.367</v>
+        <v>0.377</v>
       </c>
     </row>
     <row r="31">
@@ -780,7 +780,7 @@
         <v>1.24393804954926</v>
       </c>
       <c r="E36" t="n">
-        <v>0.28</v>
+        <v>0.295</v>
       </c>
     </row>
     <row r="37">
@@ -845,7 +845,7 @@
         <v>6.93186671942082</v>
       </c>
       <c r="E42" t="n">
-        <v>0.002</v>
+        <v>0.003</v>
       </c>
     </row>
     <row r="43">
@@ -910,7 +910,7 @@
         <v>3.6535565740211</v>
       </c>
       <c r="E48" t="n">
-        <v>0.024</v>
+        <v>0.025</v>
       </c>
     </row>
     <row r="49">
@@ -975,7 +975,7 @@
         <v>1.45011113937639</v>
       </c>
       <c r="E54" t="n">
-        <v>0.236</v>
+        <v>0.242</v>
       </c>
     </row>
     <row r="55">
@@ -1040,7 +1040,7 @@
         <v>5.72657595627664</v>
       </c>
       <c r="E60" t="n">
-        <v>0.001</v>
+        <v>0.003</v>
       </c>
     </row>
     <row r="61">
@@ -1105,7 +1105,7 @@
         <v>7.42905726480664</v>
       </c>
       <c r="E66" t="n">
-        <v>0.001</v>
+        <v>0.002</v>
       </c>
     </row>
     <row r="67">
@@ -1170,7 +1170,7 @@
         <v>0.337651939687124</v>
       </c>
       <c r="E72" t="n">
-        <v>0.815</v>
+        <v>0.821</v>
       </c>
     </row>
     <row r="73">
@@ -1235,7 +1235,7 @@
         <v>20.2910659592871</v>
       </c>
       <c r="E78" t="n">
-        <v>0.002</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="79">
@@ -1365,7 +1365,7 @@
         <v>7.654756590044</v>
       </c>
       <c r="E90" t="n">
-        <v>0.002</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="91">

--- a/Figures/pairwise_adonis_22_same_sheet.xlsx
+++ b/Figures/pairwise_adonis_22_same_sheet.xlsx
@@ -455,7 +455,7 @@
         <v>1.64515877407047</v>
       </c>
       <c r="E6" t="n">
-        <v>0.194</v>
+        <v>0.177</v>
       </c>
     </row>
     <row r="7">
@@ -520,7 +520,7 @@
         <v>0.637007320706821</v>
       </c>
       <c r="E12" t="n">
-        <v>0.631</v>
+        <v>0.619</v>
       </c>
     </row>
     <row r="13">
@@ -585,7 +585,7 @@
         <v>2.135826879874</v>
       </c>
       <c r="E18" t="n">
-        <v>0.104</v>
+        <v>0.086</v>
       </c>
     </row>
     <row r="19">
@@ -650,7 +650,7 @@
         <v>8.17941972177611</v>
       </c>
       <c r="E24" t="n">
-        <v>0.001</v>
+        <v>0.002</v>
       </c>
     </row>
     <row r="25">
@@ -715,7 +715,7 @@
         <v>1.10144499770025</v>
       </c>
       <c r="E30" t="n">
-        <v>0.377</v>
+        <v>0.319</v>
       </c>
     </row>
     <row r="31">
@@ -780,7 +780,7 @@
         <v>1.24393804954926</v>
       </c>
       <c r="E36" t="n">
-        <v>0.295</v>
+        <v>0.294</v>
       </c>
     </row>
     <row r="37">
@@ -845,7 +845,7 @@
         <v>6.93186671942082</v>
       </c>
       <c r="E42" t="n">
-        <v>0.003</v>
+        <v>0.002</v>
       </c>
     </row>
     <row r="43">
@@ -910,7 +910,7 @@
         <v>3.6535565740211</v>
       </c>
       <c r="E48" t="n">
-        <v>0.025</v>
+        <v>0.027</v>
       </c>
     </row>
     <row r="49">
@@ -975,7 +975,7 @@
         <v>1.45011113937639</v>
       </c>
       <c r="E54" t="n">
-        <v>0.242</v>
+        <v>0.22</v>
       </c>
     </row>
     <row r="55">
@@ -1040,7 +1040,7 @@
         <v>5.72657595627664</v>
       </c>
       <c r="E60" t="n">
-        <v>0.003</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="61">
@@ -1105,7 +1105,7 @@
         <v>7.42905726480664</v>
       </c>
       <c r="E66" t="n">
-        <v>0.002</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="67">
@@ -1170,7 +1170,7 @@
         <v>0.337651939687124</v>
       </c>
       <c r="E72" t="n">
-        <v>0.821</v>
+        <v>0.82</v>
       </c>
     </row>
     <row r="73">
@@ -1365,7 +1365,7 @@
         <v>7.654756590044</v>
       </c>
       <c r="E90" t="n">
-        <v>0.001</v>
+        <v>0.004</v>
       </c>
     </row>
     <row r="91">
